--- a/기획 자료/몬스터 시트.xlsx
+++ b/기획 자료/몬스터 시트.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhana\Desktop\하나\StarGiant\기획 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF5525-2F3A-4FEE-AA80-BF357F22A103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6756AD-931C-4AD7-89C4-85593450BC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5567B08-2165-47A1-BFBB-F4C4F28C2EB6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5567B08-2165-47A1-BFBB-F4C4F28C2EB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="몬스터" sheetId="1" r:id="rId1"/>
+    <sheet name="운석" sheetId="2" r:id="rId2"/>
+    <sheet name="보석" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">몬스터!$B$4:$I$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>이름</t>
   </si>
@@ -165,12 +167,64 @@
     <t>360도 회전하면서 한발씩 발사한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>운석A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운석B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운석C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운석D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운석E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화된 탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에메랄드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사파이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아만다티움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리할콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,14 +248,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="7"/>
@@ -234,48 +280,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -314,6 +339,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -348,6 +376,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -382,6 +413,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -416,6 +450,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -450,6 +487,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -484,6 +524,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -518,6 +561,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -550,6 +596,385 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -862,22 +1287,560 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1361369</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1133294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3D6403-A0A9-4FAE-935E-4FE048663579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="1362075"/>
+          <a:ext cx="1142294" cy="1009469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1407532</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D2D44C-A289-ED32-3040-C3D53F882C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="3733800"/>
+          <a:ext cx="1340857" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1395889</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F383D708-E225-7CD4-A6D9-C6CC306E1738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="2486025"/>
+          <a:ext cx="1395889" cy="1257117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1342839</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1199980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D5CBC3-6616-E4FB-2E79-13DB0ED2ADC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="4914900"/>
+          <a:ext cx="1257114" cy="1152355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1199968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F42929-754C-9C0F-1A01-33B18BEA9737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId10">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="6093974"/>
+          <a:ext cx="1190625" cy="1182944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1285762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54B44A1-D10F-3260-A745-CDFF7B76ACA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="1881448"/>
+          <a:ext cx="1323975" cy="1233114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1276232</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1323836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8BB6AD-BCCD-FBB7-14B6-D2788F181D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="3409950"/>
+          <a:ext cx="942857" cy="1114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05EB45C-9B70-B1E4-8848-E49EF2E53447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400675" y="6043925"/>
+          <a:ext cx="1104900" cy="1280680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238140</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1314301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F4C216-57F8-0B1A-362F-C3693D1FA0A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="4695825"/>
+          <a:ext cx="876190" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EE5E113-A5C0-4CB2-BC9F-DA2CAA4D4FA6}" name="표1" displayName="표1" ref="B4:I9" dataDxfId="0" headerRowCellStyle="표준" dataCellStyle="표준">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EE5E113-A5C0-4CB2-BC9F-DA2CAA4D4FA6}" name="표1" displayName="표1" ref="B4:I9" dataDxfId="38" headerRowCellStyle="표준" dataCellStyle="표준">
   <autoFilter ref="B4:I9" xr:uid="{4EE5E113-A5C0-4CB2-BC9F-DA2CAA4D4FA6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C9F2D393-61A9-4B05-B462-043F57A23D69}" name="이름" totalsRowLabel="요약" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="표준"/>
-    <tableColumn id="2" xr3:uid="{968822D5-51D7-49D5-AEE6-1757DE3FD148}" name="사이즈(플레이어 함선 기준)" dataDxfId="7" totalsRowDxfId="10" dataCellStyle="표준"/>
-    <tableColumn id="3" xr3:uid="{4FBEEA99-A24A-41C2-B371-D83E06CF36CE}" name="체력" dataDxfId="6" totalsRowDxfId="11" dataCellStyle="표준"/>
-    <tableColumn id="4" xr3:uid="{E7FA08D2-8F9F-4719-8959-2C76840DB23C}" name="공격력(탄 마다)" dataDxfId="5" totalsRowDxfId="12" dataCellStyle="표준"/>
-    <tableColumn id="5" xr3:uid="{34F91D51-2E34-4FA3-8BAB-F0FDB32B892C}" name="공격패턴" dataDxfId="4" totalsRowDxfId="13" dataCellStyle="표준"/>
-    <tableColumn id="6" xr3:uid="{E3BA75CC-C88E-432C-8EF4-C79B56B8520B}" name="특징" dataDxfId="3" totalsRowDxfId="14" dataCellStyle="표준"/>
-    <tableColumn id="7" xr3:uid="{D7CF6756-5E1C-4D64-ADAB-1C562891E0B1}" name="아이템 드롭률" dataDxfId="2" totalsRowDxfId="15" dataCellStyle="표준"/>
-    <tableColumn id="8" xr3:uid="{41B77148-107F-4E41-95CD-3E5C46B92A26}" name="이미지" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="16" dataCellStyle="표준"/>
+    <tableColumn id="1" xr3:uid="{C9F2D393-61A9-4B05-B462-043F57A23D69}" name="이름" totalsRowLabel="요약" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="표준"/>
+    <tableColumn id="2" xr3:uid="{968822D5-51D7-49D5-AEE6-1757DE3FD148}" name="사이즈(플레이어 함선 기준)" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="표준"/>
+    <tableColumn id="3" xr3:uid="{4FBEEA99-A24A-41C2-B371-D83E06CF36CE}" name="체력" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="표준"/>
+    <tableColumn id="4" xr3:uid="{E7FA08D2-8F9F-4719-8959-2C76840DB23C}" name="공격력(탄 마다)" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="표준"/>
+    <tableColumn id="5" xr3:uid="{34F91D51-2E34-4FA3-8BAB-F0FDB32B892C}" name="공격패턴" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="표준"/>
+    <tableColumn id="6" xr3:uid="{E3BA75CC-C88E-432C-8EF4-C79B56B8520B}" name="특징" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="표준"/>
+    <tableColumn id="7" xr3:uid="{D7CF6756-5E1C-4D64-ADAB-1C562891E0B1}" name="아이템 드롭률" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="표준"/>
+    <tableColumn id="8" xr3:uid="{41B77148-107F-4E41-95CD-3E5C46B92A26}" name="이미지" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="표준"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{78736A3C-CBC1-401F-9275-AB61565537AD}" name="표1_5" displayName="표1_5" ref="B5:F10" dataDxfId="21" headerRowCellStyle="표준" dataCellStyle="표준">
+  <autoFilter ref="B5:F10" xr:uid="{78736A3C-CBC1-401F-9275-AB61565537AD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{41963211-518D-4187-9469-DBD80E2EE546}" name="이름" totalsRowLabel="요약" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="표준"/>
+    <tableColumn id="2" xr3:uid="{40739E4F-CBF5-41AF-88C1-1FBB1693BE54}" name="사이즈(플레이어 함선 기준)" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="표준"/>
+    <tableColumn id="3" xr3:uid="{82A62F97-EB80-4C7F-97F1-4187ED7EA19D}" name="체력" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="표준"/>
+    <tableColumn id="4" xr3:uid="{A4F62CBD-194D-49A0-B333-73208E84CF27}" name="공격력(탄 마다)" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="표준"/>
+    <tableColumn id="8" xr3:uid="{63F7F26E-09C9-48F4-8B3E-90F3260876D2}" name="이미지" totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="표준"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{205B1117-2201-4D48-AD1B-1314334AD9D5}" name="표1_3" displayName="표1_3" ref="B7:F11" dataDxfId="10" headerRowCellStyle="표준" dataCellStyle="표준">
+  <autoFilter ref="B7:F11" xr:uid="{205B1117-2201-4D48-AD1B-1314334AD9D5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{062FF189-ED13-43F2-A522-A51A23B440EB}" name="이름" totalsRowLabel="요약" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="표준"/>
+    <tableColumn id="2" xr3:uid="{DA3DDDD9-8452-4339-B8CC-6F31BB185C96}" name="사이즈(플레이어 함선 기준)" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="표준"/>
+    <tableColumn id="4" xr3:uid="{2D7F1F5D-61D6-4B38-8B3E-F4AF7C4777AC}" name="공격력(탄 마다)" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="표준"/>
+    <tableColumn id="6" xr3:uid="{A9DE9753-004B-40AC-9EDE-F0D73687C50C}" name="특징" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="표준"/>
+    <tableColumn id="8" xr3:uid="{C3DD9C7D-6AD1-47D5-8A28-99495583E78B}" name="이미지" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="표준"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1182,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB99EAB-6C35-49F9-B78E-A0C0EE2CD379}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1192,16 +2155,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1230,124 +2193,124 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>50</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.1</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>30</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.08</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1.3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>90</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.12</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>50</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>0.1</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>60</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.1</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1361,4 +2324,250 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4D018D-65A2-4D31-B28F-8CF3A2590E84}">
+  <dimension ref="B3:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFCCE63-E277-4500-BD48-5BF3E0AB25E4}">
+  <dimension ref="B5:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:9" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>